--- a/data/convert.xlsx
+++ b/data/convert.xlsx
@@ -24,26 +24,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="555">
   <si>
     <t>변수명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>객관식_답변</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>객관식_답변_문항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>주관식답변</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[PID]</t>
@@ -121,7 +121,7 @@
       </rPr>
       <t xml:space="preserve"> 세종</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
@@ -141,7 +141,7 @@
 15
 16
 17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">[A_SQ1] </t>
@@ -166,7 +166,7 @@
 14
 15
 16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -209,7 +209,7 @@
       </rPr>
       <t xml:space="preserve"> 제주</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_SQ2]</t>
@@ -220,12 +220,12 @@
   <si>
     <t>1
 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 남자
 ② 여자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_AGE]</t>
@@ -245,7 +245,7 @@
 4
 5
 6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>② 19∼29세
@@ -253,26 +253,26 @@
 ④ 40∼49세
 ⑤ 50∼59세
 ⑥ 60세 이상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q1]</t>
   </si>
   <si>
     <t>Q. 신고리 원자력발전소 5호기와 6호기에 대한 건설 중단과 건설 재개를 둘러싸고 논란이 있어 공론화위원회가 구성되어 국민 의견을 수렴하고 있습니다. 이에 대해 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신고리 5·6호기
 공론화위원회
 관련 인지도
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 알고 있다
 ② 처음 듣는 이야기다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q2]</t>
@@ -303,7 +303,7 @@
       </rPr>
       <t>6호기를 건설 중단해야 할지, 건설  재개해야 할지에 대해 다양한 의견들이 있습니다. 어떻게 해야 한다고 생각하십니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
@@ -311,21 +311,21 @@
 대한 입장
 (유보 포함)
 (1차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
 2
 3
 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 건설을 중단해야 한다고 생각한다
 ② 건설을 재개해야 한다고 생각한다
 ③ 아직은 판단하기 어렵다
 ④ 잘 모르겠다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q2_1]</t>
@@ -334,7 +334,7 @@
     <t>신고리 5·6호기
 건설 중단 이유
 (1차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
       <t>6호기를 건설 중단해야 한다고 생각하시는 가장 
 큰 이유는 무엇입니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 체르노빌, 후쿠시마 원전사고와 같은 위험이 상존해서
@@ -372,7 +372,7 @@
 ④ 탈원전, 신재생에너지 정책은 세계적인 추세여서
 ⑤ 기타
 ⑨ 잘 모르겠다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
@@ -381,7 +381,7 @@
 4
 5
 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q2_2]</t>
@@ -390,7 +390,7 @@
     <t>신고리 5·6호기
 건설 재개 이유
 (1차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -419,7 +419,7 @@
       <t>6호기를 건설 재개해야 한다고 생각하시는 가장 
 큰 이유는 무엇입니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 전기요금 인상으로 가계와 기업에 부담이 증가할 수 있어서
@@ -428,7 +428,7 @@
 ④ 일자리 감소 및 원전 수출기회 상실 등 경제에 악영향을 줄 것 같아서
 ⑤ 기타
 ⑨ 잘 모르겠다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q3]</t>
@@ -438,19 +438,19 @@
   </si>
   <si>
     <t>Q. 우리나라 원자력발전 정책이 어떠한 방향으로 나아가야 한다고 생각하십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원자력발전 정책 
 방향 (1차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 원자력발전 확대
 ② 원자력발전 현상 유지
 ③ 원자력발전 축소
 ⑨ 잘 모르겠다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q4]</t>
@@ -458,7 +458,7 @@
   <si>
     <t>시민참여단
 참가 의향</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -513,19 +513,19 @@
 토론회 참석자는 9월 16일 오후 사전 오리엔테이션에도 참석
 해야 합니다. 귀하께서는 토론회에 참석할 생각이 있으십니까? </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
 2
 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 참석할 생각이 있다
 ② 참석할 생각이 없다
 ③ 상황에 따라 다르다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q5]</t>
@@ -546,7 +546,7 @@
 7
 8
 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 농/림/어업 
@@ -558,7 +558,7 @@
 ⑦ 학생
 ⑧ 무직/퇴직/은퇴 등
 ⑨ 모름/무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_Q6]</t>
@@ -578,7 +578,7 @@
 6
 98
 99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 더불어민주당
@@ -589,7 +589,7 @@
  지지하는 정당이 없음
 ⑥ 기타 정당
  모름/무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[A_GUBUN]</t>
@@ -603,7 +603,7 @@
   <si>
     <t>① 집전화
 ② 휴대전화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[WT1]</t>
@@ -626,14 +626,14 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 안전성 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 중단/재개 결정에
 대한 판단 중요성
 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
@@ -644,7 +644,7 @@
 6
 7
 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 매우 중요하다
@@ -655,7 +655,7 @@
 ⑥ 중요하지 않다
 ⑦ 전혀 중요하지 않다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q1_2]</t>
@@ -663,7 +663,7 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 안정적 에너지 공급 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q1_3]</t>
@@ -671,7 +671,7 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 전력공급 경제성 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q1_4]</t>
@@ -679,7 +679,7 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 지역 및 국가 산업 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q1_5]</t>
@@ -687,7 +687,7 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 전기요금 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q1_6]</t>
@@ -695,7 +695,7 @@
   <si>
     <t>Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내리는 데 얼마나 중요하다고 생각하십니까?
 &lt;결정을 내리는데 중요한 고려 요인 : 환경성 측면&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q2_1]</t>
@@ -703,13 +703,13 @@
   <si>
     <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
 &lt;신고리 5·6호기에 대한 방송 프로그램&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기 
 관련 매체 
 접촉 빈도 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 자주 그랬다
@@ -718,7 +718,7 @@
 ④ 별로 그렇지 않았다
 ⑤ 거의 그렇지 않았다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q2_2]</t>
@@ -726,7 +726,7 @@
   <si>
     <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
 &lt;신고리 5·6호기에 대한 뉴스&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q2_3]</t>
@@ -734,7 +734,7 @@
   <si>
     <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
 &lt;신고리 5·6호기에 대한 인터넷 정보 검색&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q2_4]</t>
@@ -742,7 +742,7 @@
   <si>
     <t>Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
 &lt;신고리 5·6호기에 대한 지인들과의 대화(의견 교환)&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_1]</t>
@@ -774,13 +774,13 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 정부&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보원별 신고리 
 5·6호기에 대한
 정보 신뢰도 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 매우 신뢰한다
@@ -791,7 +791,7 @@
 ⑥ 신뢰하지 않다
 ⑦ 전혀 신뢰하지 않는다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_2]</t>
@@ -823,7 +823,7 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 원자력 전문가&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_3]</t>
@@ -855,7 +855,7 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 원자력발전 사업자&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_4]</t>
@@ -887,7 +887,7 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 시민단체&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_5]</t>
@@ -919,7 +919,7 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 시민, 방송 등 대중매체&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q3_6]</t>
@@ -951,7 +951,7 @@
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?
 &lt;신고리 5·6호기에 대한 정보 신뢰도 : 인터넷 상의 정보&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q4]</t>
@@ -959,13 +959,13 @@
   <si>
     <t>Q. 현재 우리나라에서 전기를 생산중인 원자력 발전소는 몇 
 기로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가동 중인 
 원자력발전소 수
 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 20기
@@ -974,7 +974,7 @@
 ④ 26기
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q5]</t>
@@ -982,14 +982,14 @@
   <si>
     <t>신고리 5·6호기
 위치 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 신고리 5·6호기가 위치한 지역은 어디로 알고 계십니까?</t>
   </si>
   <si>
     <t>Q. 신고리 5·6호기가 위치한 지역은 어디로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 울주 (정답)
@@ -998,7 +998,7 @@
 ④ 울진
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q6]</t>
@@ -1006,12 +1006,12 @@
   <si>
     <t>Q. 우리나라 원자력발전소에서 사용하는 연료는 무엇으로 알
 고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원자력발전 연료
 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 세슘
@@ -1020,7 +1020,7 @@
 ④ 플루토늄
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q7]</t>
@@ -1029,13 +1029,13 @@
     <t xml:space="preserve">Q. 현재 우리나라 원자력발전소 부지 중, 사용후핵연료가 가장 
 많이 보관되어 있는 곳은 어디로 알고 계십니까? (2017년 원
 자력안전위원회 기준) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용후핵연료가
 가장 많이 보관된 
 원전 위치 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 고리
@@ -1045,7 +1045,7 @@
 ⑤ 잘 모르겠다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q8]</t>
@@ -1054,14 +1054,14 @@
     <t xml:space="preserve">Q. 현재 원자력발전소를 가장 많이 운영하고 있는 국가는 어
 디로 알고 계십니까? (2017년 세계원자력협회 기준)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">원전을 가장 많이 
 운영하는 국가 
 (2차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -1071,7 +1071,7 @@
 5
 9
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 한국
@@ -1081,7 +1081,7 @@
 ⑤ 잘 모르겠다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q9]</t>
@@ -1089,7 +1089,7 @@
   <si>
     <t>Q. 현재 재생에너지 비중이 가장 큰 국가는 어디로 알고 계십
 니까? (2017년 국제에너지기구 기준)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 독일
@@ -1099,13 +1099,13 @@
 ⑤ 잘 모르겠다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>재생에너지 
 비중이 가장 큰 
 국가 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q10]</t>
@@ -1114,12 +1114,12 @@
     <t>Q. 현재 우리나라 전기생산량 중 가장 많은 비중을 차지하는 
 에너지원은 무엇으로 알고 계십니까? (2016년 한국전력통계 
 기준)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가장 비중이 큰 
 에너지원 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 신재생
@@ -1129,7 +1129,7 @@
 ⑤ 잘 모르겠다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[B_Q11]</t>
@@ -1137,12 +1137,12 @@
   <si>
     <t>Q. 우리나라에는 2017년 6월부터 영구적으로 운영이 정지된 
 발전소가 있습니다. 어느 발전소로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영구 정지된 
 발전소 (2차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 영광 1호기
@@ -1152,11 +1152,11 @@
 ⑤ 잘 모르겠다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개인식별번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비표번호</t>
@@ -1192,7 +1192,7 @@
 재개해야 할지에 대해 다양한 의견들이 있습니다. 어떻게 해야 
 한다고 생각하십니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -1200,7 +1200,7 @@
 3
 4
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
@@ -1208,7 +1208,7 @@
 대한 입장
 (유보 포함)
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q1_1]</t>
@@ -1218,7 +1218,7 @@
 건설 중단 이유
 (3차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q1_2]</t>
@@ -1227,7 +1227,7 @@
     <t>신고리 5·6호기
 건설 재개 이유
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q2]</t>
@@ -1235,38 +1235,38 @@
   <si>
     <t>Q. 우리나라 원자력발전 정책이 어떠한 방향으로 나아가야 한
 다고 생각하십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원자력발전 정책 
 방향 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 원자력발전 축소
 ② 원자력발전 현상 유지
 ③ 원자력발전 확대
 ⑨ 잘 모르겠다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q3_1]</t>
   </si>
   <si>
     <t>[C_Q3_2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q3_3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q3_4]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q3_5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 안전성 측면</t>
@@ -1285,7 +1285,7 @@
   </si>
   <si>
     <t>[C_Q4_2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q4_3]</t>
@@ -1295,7 +1295,7 @@
   </si>
   <si>
     <t>[C_Q4_5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;신고리 5·6호기 공론화위원회가 주최한 공개토론회&gt;</t>
@@ -1308,14 +1308,14 @@
   </si>
   <si>
     <t>[C_Q4_8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q5]</t>
   </si>
   <si>
     <t>Q. 자료집을 어느 정도나 보셨습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 처음부터 끝까지 다 봤다
@@ -1324,12 +1324,12 @@
 ④ 절반 보다는 적게 봤다 (1/4정도)
 ⑤ 전혀 보지 않았다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자료집
 숙의 정도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q6_1]</t>
@@ -1370,41 +1370,35 @@
 ⑥ 동의하지 않다
 ⑦ 전혀 동의하지 않는다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변수_설명2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>변수_설명1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>건설 중단/재개에 
 대한 공감도
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 건설 중단</t>
-  </si>
-  <si>
-    <t>2) 건설 재개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 건설을 재개해야 한다는 측도 다양한 주장이 있고, 건설을 
 중단해야 한다는 측도 다양한 주장이 있습니다. 다음 각각의 
 주장에 대해 얼마나 공감하십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설문_문항1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설문_문항2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;건설을 중단해야 한다는 주장&gt;</t>
@@ -1427,7 +1421,7 @@
 ⑥ 그렇지 않다
 ⑦ 전혀 그렇지 않다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q8]</t>
@@ -1436,28 +1430,28 @@
     <t>가동 중인 
 원자력발전소 수
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 위치 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원자력발전 연료
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q9]</t>
   </si>
   <si>
     <t>[C_Q10]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 우리나라 원자력발전소에서 사용하는 연료는 무엇으로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q11]</t>
@@ -1466,29 +1460,29 @@
     <t>사용후핵연료가
 가장 많이 보관된 
 원전 위치 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원전을 가장 많이 
 운영하는 국가 
 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>재생에너지 
 비중이 가장 큰 
 국가 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가장 비중이 큰 
 에너지원 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영구 정지된 
 발전소 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 고리
@@ -1497,7 +1491,7 @@
 ④ 한울(울진)
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q12]</t>
@@ -1507,7 +1501,7 @@
   </si>
   <si>
     <t>Q. 현재 원자력발전소를 가장 많이 운영하고 있는 국가는 어디로 알고 계십니까? (2017년 세계원자력협회 기준)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 한국
@@ -1516,14 +1510,14 @@
 ④ 미국 (정답)
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q13]</t>
   </si>
   <si>
     <t>Q. 현재 재생에너지 비중이 가장 큰 국가는 어디로 알고 계십니까? (2017년 국제에너지기구 기준)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 독일
@@ -1532,14 +1526,14 @@
 ④ 포르투갈
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q14]</t>
   </si>
   <si>
     <t>Q. 현재 우리나라 전기생산량 중 가장 많은 비중을 차지하는 에너지원은 무엇으로 알고 계십니까? (2016년 한국전력통계 기준)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 신재생
@@ -1548,14 +1542,14 @@
 ④ 석탄 (정답)
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_Q15]</t>
   </si>
   <si>
     <t>Q. 우리나라에는 2017년 6월부터 영구적으로 운영이 정지된 발전소가 있습니다. 어느 발전소로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 영광 1호기
@@ -1564,7 +1558,7 @@
 ④ 울진 1호기
 ⑤ 잘 모르겠다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학력</t>
@@ -1580,7 +1574,7 @@
   </si>
   <si>
     <t>월평균 가구 총소득</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>종교</t>
@@ -1596,14 +1590,14 @@
 ② 고졸
 ③ 대재 이상
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_DQ2]</t>
   </si>
   <si>
     <t>Q. 한국 사회를 10개 층으로 나눈다면, 현재 선생님의 가정은 어느 계층에 속한다고 생각하십니까? ‘낮다’면 1, ‘높다’면 10으로 1에서 10까지 사이의 숫자를 선택해 주십시오.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1
@@ -1617,7 +1611,7 @@
 9
 10
 99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>낮다
@@ -1631,7 +1625,7 @@
 높다
 높다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_DQ3]</t>
@@ -1646,14 +1640,14 @@
 ④ 보수
 ⑤ 매우 보수
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_DQ4]</t>
   </si>
   <si>
     <t>Q. 직업으로 하시는 일은 무엇입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 농/림/어업 
@@ -1665,7 +1659,7 @@
 ⑦ 학생
 ⑧ 무직/퇴직/은퇴 등
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_DQ5]</t>
@@ -1683,7 +1677,7 @@
 ⑦ 600만원 이상 700만원 미만 
 ⑧ 700만원 이상 
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[C_DQ6]</t>
@@ -1699,7 +1693,7 @@
 ⑤ 무교
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q1]</t>
@@ -1716,19 +1710,19 @@
 대한 입장
 (유보 포함)
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 중단 이유
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 재개 이유
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1756,7 +1750,7 @@
       </rPr>
       <t>6호기를 건설 중단해야 할지, 건설 재개해야 할지에 대해 다양한 의견들이 있습니다. 어떻게 해야 한다고 생각하십니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 건설을 중단해야 한다고 생각한다
@@ -1764,7 +1758,7 @@
 ③ 아직은 판단하기 어렵다
 ④ 잘 모르겠다
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1792,7 +1786,7 @@
       </rPr>
       <t>6호기를 건설 중단해야 한다고 생각하시는 가장 큰 이유는 무엇입니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 체르노빌, 후쿠시마 원전사고와 같은 위험이 상존해서
@@ -1802,7 +1796,7 @@
 ⑤ 기타
 ⑨ 잘 모르겠다
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1830,7 +1824,7 @@
       </rPr>
       <t>6호기를 건설 재개해야 한다고 생각하시는 가장 큰 이유는 무엇입니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q2]</t>
@@ -1838,7 +1832,7 @@
   <si>
     <t>원자력발전 정책 
 방향 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -1846,7 +1840,7 @@
 3
 9
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 원자력발전 축소
@@ -1854,7 +1848,7 @@
 ③ 원자력발전 확대
 ⑨ 잘 모르겠다
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신고리 5·6호기
@@ -1862,7 +1856,7 @@
 대한 판단 중요성
 (4차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q3_1]</t>
@@ -1925,7 +1919,7 @@
 7
 9
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 매우 중요하다
@@ -1937,13 +1931,13 @@
 ⑦ 전혀 중요하지 않다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보원별 신고리 
 5·6호기에 대한
 정보 신뢰도 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 정부</t>
@@ -2023,11 +2017,11 @@
 주장하는 내용에 
 대한 동의 정도
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 다음은 양측에서 자료집이나 동영상 등을 통해 주장하고 있는 내용입니다. 이 내용에 대해서 동의하십니까? 아니면 동의하지 않으십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 위험 증가</t>
@@ -2123,11 +2117,11 @@
     <t>건설 중단/재개에 
 대한 공감도
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 건설을 재개해야 한다는 측도 다양한 주장이 있고, 건설을 중단해야 한다는 측도 다양한 주장이 있습니다. 다음 각각의 주장에 대해 얼마나 공감하십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q6_1]</t>
@@ -2140,21 +2134,21 @@
 건설 중단/재개에
 대한 입장
 (유보 제외)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 중단/재개
 최종결과에 대한
 존중 정도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 중단 시
 필요한 조치
 (1, 2순위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2182,7 +2176,7 @@
       </rPr>
       <t xml:space="preserve">6호기 건설을 중단해야 한다고 생각하십니까?,  아니면 건설을 재개해야 한다고 생각하십니까? </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q7]</t>
@@ -2190,14 +2184,14 @@
   <si>
     <t>① 건설을 중단해야 한다고 생각한다
 ② 건설을 재개해야 한다고 생각한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q8]</t>
   </si>
   <si>
     <t>Q. 신고리 5·6호기 건설 중단 또는 재개에 대한 최종결과가 본인의 의견과 다를 때, 이에 대해 얼마나 존중하시겠습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -2206,7 +2200,7 @@
 4
 9
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">① 전적으로 존중하겠다
@@ -2215,11 +2209,11 @@
 ④ 전혀 존중할 수 없다
 무응답
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 건설을 중단할 경우, 다음의 조치가 필요하다는 의견도 있습니다. 다음 조치 중 가장 필요하다고 생각되는 의견에 대해 1순위와 2순위를 골라주십시오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;1순위&gt;</t>
@@ -2239,7 +2233,7 @@
 3
 4
 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 기존 원전의 안전한 운영을 위한 인력양성을 지원해야 한다
@@ -2247,24 +2241,24 @@
 ③ 원자력 기술을 유지·발전시키기 위한 투자를 해야 한다
 ④ 원전산업 종사자를 위한 사기진작 방안을 모색해야 한다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 중단 시
 필요한 기타 조치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q9_1]</t>
   </si>
   <si>
     <t>Q. 건설을 중단할 경우, 위의 조치 이외에 필요한 조치가 있다면 어떤 것이 있을까요? 반드시 필요하다고 생각하시는 조치를 적어주십시오. (오픈형 질문)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 건설을 재개할 경우, 다음의 조치가 필요하다는 의견도 있습니다. 다음 조치 중 가장 필요하다고 생각되는 의견에 대해 1순위와 2순위를 골라주십시오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신고리 5·6호기
@@ -2272,7 +2266,7 @@
 필요한 조치
 (1, 2순위)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q10_M1]</t>
@@ -2286,55 +2280,55 @@
 ③ 사용후핵연료 해결방안을 가급적 빨리 마련해야 한다
 ④ 신재생에너지 비중을 늘이기 위한 투자를 확대해야 한다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 건설 재개 시
 필요한 기타 조치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q10_1]</t>
   </si>
   <si>
     <t>Q. 건설을 재개할 경우, 위의 조치 이외에 필요한 조치가 있다면 어떤 것이 있을까요? 반드시 필요하다고 생각하시는 조치를 적어주십시오. (오픈형 질문)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q11]</t>
   </si>
   <si>
     <t>Q. 현재 우리나라에서 전기를 생산중인 원자력 발전소는 몇 기로 알고 계십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가동 중인 
 원자력발전소 수
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기
 위치 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원자력발전 연료
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용후핵연료가
 가장 많이 보관된 
 원전 위치 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>원전을 가장 많이 
 운영하는 국가 
 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q12]</t>
@@ -2347,7 +2341,7 @@
   </si>
   <si>
     <t xml:space="preserve">Q. 현재 우리나라 원자력발전소 부지 중, 사용후핵연료가 가장 많이 보관되어 있는 곳은 어디로 알고 계십니까? (2017년 원자력안전위원회 기준) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q15]</t>
@@ -2359,17 +2353,17 @@
     <t>재생에너지 
 비중이 가장 큰 
 국가 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가장 비중이 큰 
 에너지원 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영구 정지된 
 발전소 (4차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q17]</t>
@@ -2413,7 +2407,7 @@
 ⑥ 그렇지 않다
 ⑦ 거의 그렇지 않다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q19_1]</t>
@@ -2465,13 +2459,13 @@
   </si>
   <si>
     <t>정치적 태도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공론화 과정
 공정성에 대한 
 평가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 자료집</t>
@@ -2499,7 +2493,7 @@
   </si>
   <si>
     <t>&lt;공론화 과정 공정성에 대한 평가 : 모더레이터(분임토의 진행자&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5) 종합평가</t>
@@ -2531,12 +2525,12 @@
 ⑥ 공정하지 않았다
 ⑦ 전혀 공정하지 않았다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의견 결정 도움 
 정도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 생각을 정하는데 다음 내용이 얼마나 도움이 되셨습니까?</t>
@@ -2625,7 +2619,7 @@
 ⑥ 도움이 되지 않았다
 ⑦ 전혀 도움이 되지 않았다
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분임 토의 평가</t>
@@ -2682,7 +2676,7 @@
     <t>전체 공론화 
 과정에 대한 
 평가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 성실성</t>
@@ -2746,12 +2740,12 @@
   </si>
   <si>
     <t>Q. 이번 신고리 5·6호기 공론화 과정에 대해 얼마나 만족하십니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공론화 과정에 
 대한 만족도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>① 매우 만족
@@ -2759,7 +2753,7 @@
 ③ 불만족
 ④ 매우 불만족
 무응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[D_Q23_1]</t>
@@ -2768,11 +2762,11 @@
     <t>공론화 과정에 
 대한 만족도 
 평가 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q. 그렇게 생각하시는 이유는 무엇입니까? 자유롭게 적어주세요. (오픈형 질문)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[WT4]</t>
@@ -2780,11 +2774,11 @@
   <si>
     <t>3∼4차 조사 
 가중값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3∼4차 조사 표준화 가중값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신고리 5·6호기
@@ -2792,33 +2786,33 @@
 대한 판단 중요성
 (3차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2) 안정적 에너지
   공급 측면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3) 전력공급
   경제성 측면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4) 지역 및 국가 
   산업 측면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5) 전기요금 측면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">신고리 5·6호기 
 관련 매체 
 접촉 빈도 (3차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 방송 프로그램</t>
@@ -2829,31 +2823,31 @@
   <si>
     <t>3) 인터넷 
   정보 검색</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4) 지인들과의 
   대화(의견 교환)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>신고리 5·6호기 
 관련 매체 
 접촉 빈도 (3차)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5) 공개토론회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6) 자료집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8) 홈페이지 
   질의응답</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">양측이 자료집, 
@@ -2862,11 +2856,11 @@
 대한 동의 정도
 (3차)
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1) 위험 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8) 전기요금 인상</t>
@@ -2875,7 +2869,7 @@
     <t xml:space="preserve">Q. 다음의 내용이 신고리 5·6호기 중단 또는 재개 결정을 내
 리는 데 얼마나 중요하다고 생각하십니까?
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;결정을 내리는데 중요한 고려 요인 : 안전성 측면&gt;</t>
@@ -2883,7 +2877,7 @@
   <si>
     <t xml:space="preserve">Q. 지난 1개월 동안 다음 내용을 얼마나 접하셨습니까?
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;신고리 5·6호기에 대한 방송 프로그램&gt;</t>
@@ -2909,7 +2903,7 @@
   <si>
     <t xml:space="preserve">Q. 다음은 양측에서 자료집이나 동영상 등을 통해 주장하고 있는 내용입니다. 이 내용에 대해서 동의하십니까? 아니면 동의하지 않으십니까?
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2937,7 +2931,7 @@
       </rPr>
       <t>6호기에 대한 정보를 얼마나 신뢰하십니까?</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3205,20 +3199,20 @@
       <t/>
     </r>
   </si>
+  <si>
+    <t>1) 건설 재개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 건설 중단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3280,10 +3274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3602,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3629,10 +3623,10 @@
         <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -4613,16 +4607,16 @@
         <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>75</v>
@@ -4639,16 +4633,16 @@
         <v>160</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>75</v>
@@ -4665,16 +4659,16 @@
         <v>161</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>75</v>
@@ -4691,16 +4685,16 @@
         <v>162</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>75</v>
@@ -4717,16 +4711,16 @@
         <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>75</v>
@@ -4743,13 +4737,13 @@
         <v>167</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>166</v>
@@ -4769,16 +4763,16 @@
         <v>168</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>38</v>
@@ -4795,16 +4789,16 @@
         <v>169</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="E57" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>38</v>
@@ -4821,16 +4815,16 @@
         <v>170</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>38</v>
@@ -4847,16 +4841,16 @@
         <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>38</v>
@@ -4873,13 +4867,13 @@
         <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>173</v>
@@ -4899,16 +4893,16 @@
         <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>38</v>
@@ -4925,16 +4919,16 @@
         <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>38</v>
@@ -4951,16 +4945,16 @@
         <v>176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>38</v>
@@ -4999,16 +4993,16 @@
         <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>75</v>
@@ -5025,16 +5019,16 @@
         <v>182</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>75</v>
@@ -5051,16 +5045,16 @@
         <v>183</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>75</v>
@@ -5077,16 +5071,16 @@
         <v>184</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>75</v>
@@ -5103,16 +5097,16 @@
         <v>185</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>75</v>
@@ -5129,16 +5123,16 @@
         <v>186</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>75</v>
@@ -5155,16 +5149,16 @@
         <v>187</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>75</v>
@@ -5181,16 +5175,16 @@
         <v>188</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>75</v>
@@ -5207,16 +5201,16 @@
         <v>189</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>75</v>
@@ -5233,16 +5227,16 @@
         <v>190</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>75</v>
@@ -5256,25 +5250,25 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D75" t="s">
+        <v>553</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F75" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5282,25 +5276,25 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>196</v>
+        <v>554</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5308,10 +5302,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>112</v>
@@ -5328,10 +5322,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>118</v>
@@ -5348,13 +5342,13 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>38</v>
@@ -5368,10 +5362,10 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>125</v>
@@ -5380,7 +5374,7 @@
         <v>38</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5388,19 +5382,19 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5408,19 +5402,19 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5428,19 +5422,19 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5448,19 +5442,19 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -5468,19 +5462,19 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5488,19 +5482,19 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C86" t="s">
-        <v>233</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -5508,19 +5502,19 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5528,19 +5522,19 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5548,19 +5542,19 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -5568,19 +5562,19 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="118.15" x14ac:dyDescent="0.6">
@@ -5588,19 +5582,19 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5608,19 +5602,19 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5628,13 +5622,13 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>38</v>
@@ -5648,19 +5642,19 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E94" t="s">
         <v>44</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5668,25 +5662,25 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
         <v>273</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" t="s">
-        <v>275</v>
-      </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F95" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5694,25 +5688,25 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" t="s">
         <v>274</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" t="s">
-        <v>276</v>
-      </c>
       <c r="E96" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" t="s">
         <v>283</v>
       </c>
-      <c r="F96" t="s">
-        <v>285</v>
-      </c>
       <c r="G96" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5720,25 +5714,25 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" t="s">
+        <v>275</v>
+      </c>
+      <c r="E97" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D97" t="s">
-        <v>277</v>
-      </c>
-      <c r="E97" t="s">
-        <v>283</v>
-      </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5746,25 +5740,25 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F98" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5772,25 +5766,25 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F99" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5798,25 +5792,25 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D100" t="s">
         <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F100" t="s">
         <v>166</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -5824,19 +5818,19 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D101" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" t="s">
         <v>293</v>
-      </c>
-      <c r="E101" t="s">
-        <v>547</v>
-      </c>
-      <c r="F101" t="s">
-        <v>295</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>75</v>
@@ -5850,19 +5844,19 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F102" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>75</v>
@@ -5876,19 +5870,19 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E103" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F103" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>75</v>
@@ -5902,19 +5896,19 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E104" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F104" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>75</v>
@@ -5928,19 +5922,19 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E105" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F105" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>75</v>
@@ -5954,19 +5948,19 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F106" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>75</v>
@@ -5980,19 +5974,19 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E107" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>75</v>
@@ -6006,19 +6000,19 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E108" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F108" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>75</v>
@@ -6032,22 +6026,22 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D109" t="s">
         <v>317</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" t="s">
         <v>319</v>
       </c>
-      <c r="E109" t="s">
-        <v>318</v>
-      </c>
-      <c r="F109" t="s">
-        <v>321</v>
-      </c>
       <c r="G109" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>191</v>
@@ -6058,22 +6052,22 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E110" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>191</v>
@@ -6084,22 +6078,22 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>191</v>
@@ -6110,22 +6104,22 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E112" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F112" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>191</v>
@@ -6136,22 +6130,22 @@
         <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D113" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E113" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>191</v>
@@ -6162,22 +6156,22 @@
         <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E114" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F114" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>191</v>
@@ -6188,22 +6182,22 @@
         <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>191</v>
@@ -6214,22 +6208,22 @@
         <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E116" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F116" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>191</v>
@@ -6240,22 +6234,22 @@
         <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E117" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F117" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>191</v>
@@ -6266,22 +6260,22 @@
         <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F118" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>191</v>
@@ -6292,25 +6286,25 @@
         <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
+        <v>553</v>
       </c>
       <c r="E119" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6318,25 +6312,25 @@
         <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
+        <v>554</v>
       </c>
       <c r="E120" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="67.5" x14ac:dyDescent="0.6">
@@ -6344,19 +6338,19 @@
         <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E121" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6364,19 +6358,19 @@
         <v>3</v>
       </c>
       <c r="B122" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E122" t="s">
+        <v>358</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="H122" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6384,22 +6378,22 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" t="s">
+        <v>361</v>
+      </c>
+      <c r="F123" t="s">
+        <v>362</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E123" t="s">
-        <v>363</v>
-      </c>
-      <c r="F123" t="s">
-        <v>364</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="H123" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6407,22 +6401,22 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
+        <v>365</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" t="s">
+        <v>361</v>
+      </c>
+      <c r="F124" t="s">
+        <v>363</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E124" t="s">
-        <v>363</v>
-      </c>
-      <c r="F124" t="s">
-        <v>365</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -6430,13 +6424,13 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E125" t="s">
         <v>370</v>
-      </c>
-      <c r="E125" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6444,22 +6438,22 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E126" t="s">
+        <v>371</v>
+      </c>
+      <c r="F126" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E126" t="s">
-        <v>373</v>
-      </c>
-      <c r="F126" t="s">
-        <v>364</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -6467,22 +6461,22 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E127" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F127" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -6490,13 +6484,13 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E128" t="s">
         <v>378</v>
-      </c>
-      <c r="E128" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6504,13 +6498,13 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
+        <v>379</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E129" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>38</v>
@@ -6524,10 +6518,10 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E130" t="s">
         <v>117</v>
@@ -6544,13 +6538,13 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>38</v>
@@ -6564,19 +6558,19 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E132" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6584,19 +6578,19 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6604,19 +6598,19 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E134" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6624,19 +6618,19 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="101.25" x14ac:dyDescent="0.6">
@@ -6644,19 +6638,19 @@
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E136" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6664,25 +6658,25 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D137" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E137" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F137" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6690,25 +6684,25 @@
         <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E138" t="s">
+        <v>397</v>
+      </c>
+      <c r="F138" t="s">
         <v>399</v>
-      </c>
-      <c r="F138" t="s">
-        <v>401</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6716,25 +6710,25 @@
         <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D139" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E139" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6742,25 +6736,25 @@
         <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D140" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E140" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F140" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6768,25 +6762,25 @@
         <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D141" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E141" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F141" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6794,25 +6788,25 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D142" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E142" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F142" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6820,25 +6814,25 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D143" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E143" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F143" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6846,25 +6840,25 @@
         <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D144" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E144" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F144" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6872,25 +6866,25 @@
         <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D145" t="s">
+        <v>425</v>
+      </c>
+      <c r="E145" t="s">
         <v>426</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>427</v>
-      </c>
-      <c r="E145" t="s">
-        <v>428</v>
-      </c>
-      <c r="F145" t="s">
-        <v>429</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6898,25 +6892,25 @@
         <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146" t="s">
+        <v>428</v>
+      </c>
+      <c r="E146" t="s">
         <v>426</v>
       </c>
-      <c r="D146" t="s">
-        <v>430</v>
-      </c>
-      <c r="E146" t="s">
-        <v>428</v>
-      </c>
       <c r="F146" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6924,25 +6918,25 @@
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D147" t="s">
+        <v>430</v>
+      </c>
+      <c r="E147" t="s">
         <v>426</v>
       </c>
-      <c r="D147" t="s">
-        <v>432</v>
-      </c>
-      <c r="E147" t="s">
-        <v>428</v>
-      </c>
       <c r="F147" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6950,25 +6944,25 @@
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D148" t="s">
+        <v>432</v>
+      </c>
+      <c r="E148" t="s">
         <v>426</v>
       </c>
-      <c r="D148" t="s">
-        <v>434</v>
-      </c>
-      <c r="E148" t="s">
-        <v>428</v>
-      </c>
       <c r="F148" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -6976,25 +6970,25 @@
         <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D149" t="s">
+        <v>434</v>
+      </c>
+      <c r="E149" t="s">
         <v>426</v>
       </c>
-      <c r="D149" t="s">
-        <v>436</v>
-      </c>
-      <c r="E149" t="s">
-        <v>428</v>
-      </c>
       <c r="F149" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7002,25 +6996,25 @@
         <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D150" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E150" t="s">
+        <v>443</v>
+      </c>
+      <c r="F150" t="s">
         <v>445</v>
-      </c>
-      <c r="F150" t="s">
-        <v>447</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7028,25 +7022,25 @@
         <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D151" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E151" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7054,25 +7048,25 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D152" t="s">
+        <v>448</v>
+      </c>
+      <c r="E152" t="s">
+        <v>443</v>
+      </c>
+      <c r="F152" t="s">
         <v>450</v>
-      </c>
-      <c r="E152" t="s">
-        <v>445</v>
-      </c>
-      <c r="F152" t="s">
-        <v>452</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7080,25 +7074,25 @@
         <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D153" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E153" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F153" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7106,25 +7100,25 @@
         <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D154" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E154" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F154" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7132,25 +7126,25 @@
         <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D155" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F155" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7158,25 +7152,25 @@
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D156" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E156" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F156" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7184,25 +7178,25 @@
         <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D157" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E157" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F157" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7210,25 +7204,25 @@
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D158" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E158" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F158" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7236,25 +7230,25 @@
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C159" t="s">
+        <v>470</v>
+      </c>
+      <c r="D159" t="s">
         <v>472</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
+        <v>471</v>
+      </c>
+      <c r="F159" t="s">
         <v>474</v>
-      </c>
-      <c r="E159" t="s">
-        <v>473</v>
-      </c>
-      <c r="F159" t="s">
-        <v>476</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7262,25 +7256,25 @@
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C160" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D160" t="s">
+        <v>475</v>
+      </c>
+      <c r="E160" t="s">
+        <v>471</v>
+      </c>
+      <c r="F160" t="s">
         <v>477</v>
-      </c>
-      <c r="E160" t="s">
-        <v>473</v>
-      </c>
-      <c r="F160" t="s">
-        <v>479</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7288,25 +7282,25 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C161" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D161" t="s">
+        <v>478</v>
+      </c>
+      <c r="E161" t="s">
+        <v>471</v>
+      </c>
+      <c r="F161" t="s">
         <v>480</v>
-      </c>
-      <c r="E161" t="s">
-        <v>473</v>
-      </c>
-      <c r="F161" t="s">
-        <v>482</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7314,25 +7308,25 @@
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C162" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D162" t="s">
+        <v>481</v>
+      </c>
+      <c r="E162" t="s">
+        <v>471</v>
+      </c>
+      <c r="F162" t="s">
         <v>483</v>
-      </c>
-      <c r="E162" t="s">
-        <v>473</v>
-      </c>
-      <c r="F162" t="s">
-        <v>485</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7340,25 +7334,25 @@
         <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C163" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D163" t="s">
+        <v>484</v>
+      </c>
+      <c r="E163" t="s">
+        <v>471</v>
+      </c>
+      <c r="F163" t="s">
         <v>486</v>
-      </c>
-      <c r="E163" t="s">
-        <v>473</v>
-      </c>
-      <c r="F163" t="s">
-        <v>488</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7366,25 +7360,25 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D164" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E164" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F164" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7392,25 +7386,25 @@
         <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D165" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E165" t="s">
+        <v>500</v>
+      </c>
+      <c r="F165" t="s">
         <v>502</v>
-      </c>
-      <c r="F165" t="s">
-        <v>504</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7418,25 +7412,25 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D166" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E166" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F166" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7444,25 +7438,25 @@
         <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D167" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E167" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F167" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7470,25 +7464,25 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D168" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E168" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F168" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="135" x14ac:dyDescent="0.6">
@@ -7496,25 +7490,25 @@
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D169" t="s">
+        <v>498</v>
+      </c>
+      <c r="E169" t="s">
         <v>500</v>
       </c>
-      <c r="E169" t="s">
-        <v>502</v>
-      </c>
       <c r="F169" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="84.4" x14ac:dyDescent="0.6">
@@ -7522,19 +7516,19 @@
         <v>3</v>
       </c>
       <c r="B170" t="s">
+        <v>507</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="E170" t="s">
+        <v>508</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H170" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="50.65" x14ac:dyDescent="0.6">
@@ -7542,13 +7536,13 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
+        <v>511</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E171" t="s">
         <v>513</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E171" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="33.75" x14ac:dyDescent="0.6">
@@ -7556,17 +7550,17 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
+        <v>514</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D172" t="s">
         <v>516</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D172" t="s">
-        <v>518</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
